--- a/mapping-pn13/ig/ValueSet-vsSCT.xlsx
+++ b/mapping-pn13/ig/ValueSet-vsSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-19T08:32:40+00:00</t>
+    <t>2024-04-22T07:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/ValueSet-vsSCT.xlsx
+++ b/mapping-pn13/ig/ValueSet-vsSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T07:26:57+00:00</t>
+    <t>2024-04-22T07:52:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/ValueSet-vsSCT.xlsx
+++ b/mapping-pn13/ig/ValueSet-vsSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T07:52:09+00:00</t>
+    <t>2024-04-22T09:18:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/ValueSet-vsSCT.xlsx
+++ b/mapping-pn13/ig/ValueSet-vsSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T09:18:07+00:00</t>
+    <t>2024-04-22T13:59:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/ValueSet-vsSCT.xlsx
+++ b/mapping-pn13/ig/ValueSet-vsSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T13:59:04+00:00</t>
+    <t>2024-04-22T14:39:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/ValueSet-vsSCT.xlsx
+++ b/mapping-pn13/ig/ValueSet-vsSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T14:39:57+00:00</t>
+    <t>2024-04-22T15:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/ValueSet-vsSCT.xlsx
+++ b/mapping-pn13/ig/ValueSet-vsSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-22T15:15:59+00:00</t>
+    <t>2024-04-23T15:10:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/ValueSet-vsSCT.xlsx
+++ b/mapping-pn13/ig/ValueSet-vsSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-23T15:10:46+00:00</t>
+    <t>2024-04-24T09:25:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mapping-pn13/ig/ValueSet-vsSCT.xlsx
+++ b/mapping-pn13/ig/ValueSet-vsSCT.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-24T09:25:28+00:00</t>
+    <t>2024-04-29T13:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
